--- a/src/test/resources/TestData/ExcelData.xlsx
+++ b/src/test/resources/TestData/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2406658\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F5DF9C-23E8-4B02-A4D4-8BBF5555BB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BB6237-E459-486E-BC3C-6595ED376647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2110" windowWidth="14400" windowHeight="7270" xr2:uid="{FFA61734-7B31-46DF-AD78-CF8B9D5E5642}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Chennai</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Invalid Email</t>
-  </si>
-  <si>
-    <t>xyz123@gmail.com</t>
   </si>
   <si>
     <t>merajnish123@gmail.com</t>
@@ -457,7 +454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA49C8F-D2CE-4905-A692-5470438FDE07}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -474,20 +473,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>123456</v>
@@ -500,8 +497,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6C1C6C7F-6C40-4752-839D-4644DF9D3EB4}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{1CB216B5-578E-4706-A2A9-C7D35D9609B1}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1CB216B5-578E-4706-A2A9-C7D35D9609B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
